--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2800.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2800.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169626206086426</v>
+        <v>0.9422723054885864</v>
       </c>
       <c r="B1">
-        <v>2.440256696246166</v>
+        <v>1.697656154632568</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.580130577087402</v>
       </c>
       <c r="D1">
-        <v>2.3644204905155</v>
+        <v>1.896753549575806</v>
       </c>
       <c r="E1">
-        <v>1.231766757757037</v>
+        <v>1.037350416183472</v>
       </c>
     </row>
   </sheetData>
